--- a/Keywords/Book1.xlsx
+++ b/Keywords/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\cucnt1\BTVN\Keywords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F610F46-1B31-431E-988D-D6B1E27F3EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4C914-8C6C-4CD4-AF31-696EB7732D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AEA82FA6-4026-4018-B6BE-5FA4D2D8A594}"/>
+    <workbookView xWindow="3564" yWindow="2976" windowWidth="17280" windowHeight="9420" xr2:uid="{AEA82FA6-4026-4018-B6BE-5FA4D2D8A594}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user2 </t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>pass3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed </t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -403,36 +403,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4018B8D-B686-4B2B-9D75-C1550F67D618}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
